--- a/scripts/ugm/data/kyushu2/list_kyushu2.xlsx
+++ b/scripts/ugm/data/kyushu2/list_kyushu2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9746E19E-343D-664E-918E-78F64587E743}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E2F7D-5A07-E74A-82D5-41AB54370996}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>book</t>
   </si>
@@ -46,173 +46,192 @@
     <t>マニフェストURI</t>
   </si>
   <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411266.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411267.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411268.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411269.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411270.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411271.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411272.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411273.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411274.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411275.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411276.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411277.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411278.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411279.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411280.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411281.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411282.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411283.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411284.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411285.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411286.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411287.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411288.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411289.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411290.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411291.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411292.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411293.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411294.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411295.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411296.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411297.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411298.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411299.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411300.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411301.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411302.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411303.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411304.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411305.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411306.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411307.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411308.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411309.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411310.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411311.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411312.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411313.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411314.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411315.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411316.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411317.json</t>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411318.json</t>
+  </si>
+  <si>
+    <t>大成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイセイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新編</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンヘン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411265.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411266.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411267.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411268.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411269.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411270.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411271.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411272.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411273.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411274.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411275.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411276.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411277.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411278.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411279.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411280.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411281.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411282.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411283.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411284.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411285.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411286.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411287.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411288.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411289.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411290.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411291.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411292.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411293.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411294.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411295.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411296.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411297.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411298.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411299.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411300.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411301.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411302.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411303.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411304.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411305.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411306.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411307.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411308.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411309.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411310.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411311.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411312.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411313.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411314.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411315.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411316.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411317.json</t>
-  </si>
-  <si>
-    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411318.json</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://mp.ex.nii.ac.jp/api/curation/json/5ee23d1b-373e-4115-b942-e58820a77468</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -246,6 +265,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -288,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +324,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -912,10 +940,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -923,455 +951,460 @@
     <col min="2" max="2" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
+      <c r="B18" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
+      <c r="B21" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
+      <c r="B22" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
+      <c r="B24" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
+      <c r="B25" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
+      <c r="B26" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
+      <c r="B27" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
+      <c r="B28" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
+      <c r="B29" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>33</v>
+      <c r="B31" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
+      <c r="B32" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
+      <c r="B33" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>36</v>
+      <c r="B34" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>37</v>
+      <c r="B35" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>38</v>
+      <c r="B36" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>39</v>
+      <c r="B37" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>40</v>
+      <c r="B38" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
+      <c r="B39" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
+      <c r="B40" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>43</v>
+      <c r="B41" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
+      <c r="B42" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>45</v>
+      <c r="B43" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>46</v>
+      <c r="B44" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>47</v>
+      <c r="B45" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>48</v>
+      <c r="B46" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
+      <c r="B47" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>50</v>
+      <c r="B48" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>51</v>
+      <c r="B49" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>52</v>
+      <c r="B50" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>53</v>
+      <c r="B51" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>54</v>
+      <c r="B52" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
+      <c r="B53" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>56</v>
+      <c r="B54" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>57</v>
+      <c r="B55" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{21C668B0-AC64-F24C-8DB7-C1D81C36E04D}"/>
-    <hyperlink ref="B3:B41" r:id="rId2" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{25CE19E8-7B04-AE4B-A106-89CD20C755D5}"/>
-    <hyperlink ref="B42" r:id="rId3" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{E5C80085-D273-6140-A542-5F16DBD30ADF}"/>
-    <hyperlink ref="B43:B50" r:id="rId4" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{20B9DF7B-38A0-4D42-94DC-25A50CE966BB}"/>
-    <hyperlink ref="B51" r:id="rId5" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{7189501C-D257-FB41-A2CC-80202122F8F2}"/>
-    <hyperlink ref="B52:B55" r:id="rId6" display="https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json" xr:uid="{8D050C59-D20C-C145-BA71-4E73F765A391}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{03390EB5-8F83-7841-A22F-A5E9911FBD79}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C16DDAA6-6A0A-564D-AD63-247ACAFCC03D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
